--- a/二中艺体班课表.xlsx
+++ b/二中艺体班课表.xlsx
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,12 +110,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -190,7 +184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,16 +194,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,7 +501,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -523,24 +514,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="50.1" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="80.099999999999994" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -551,9 +542,9 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -561,9 +552,9 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -571,13 +562,13 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -585,13 +576,13 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -599,25 +590,25 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="80.099999999999994" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
